--- a/INTLINE/data/924/SZSE/SZSE Main Board - Weekly.xlsx
+++ b/INTLINE/data/924/SZSE/SZSE Main Board - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AYX3"/>
+  <dimension ref="A1:AYZ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7104,15 +7104,25 @@
       </c>
       <c r="AYV1" s="1" t="inlineStr">
         <is>
+          <t>2022-04-23</t>
+        </is>
+      </c>
+      <c r="AYW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-04-30</t>
+        </is>
+      </c>
+      <c r="AYX1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="AYW1" s="1" t="inlineStr">
+      <c r="AYY1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="AYX1" s="1" t="inlineStr">
+      <c r="AYZ1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -11092,19 +11102,25 @@
         <v>2107.06</v>
       </c>
       <c r="AYU2" t="n">
-        <v>2077.48</v>
-      </c>
-      <c r="AYV2" t="inlineStr">
+        <v>2002.55</v>
+      </c>
+      <c r="AYV2" t="n">
+        <v>1965.65</v>
+      </c>
+      <c r="AYW2" t="n">
+        <v>1965.65</v>
+      </c>
+      <c r="AYX2" t="inlineStr">
         <is>
           <t>SZSEA</t>
         </is>
       </c>
-      <c r="AYW2" t="inlineStr">
+      <c r="AYY2" t="inlineStr">
         <is>
           <t>Shenzhen Stock Exchange Main Board, A Share Index, Close Price</t>
         </is>
       </c>
-      <c r="AYX2" t="inlineStr">
+      <c r="AYZ2" t="inlineStr">
         <is>
           <t>Index: 1994.10.04=100</t>
         </is>
@@ -15082,19 +15098,25 @@
         <v>1056.13</v>
       </c>
       <c r="AYU3" t="n">
-        <v>1059.75</v>
-      </c>
-      <c r="AYV3" t="inlineStr">
+        <v>1051.53</v>
+      </c>
+      <c r="AYV3" t="n">
+        <v>1044.47</v>
+      </c>
+      <c r="AYW3" t="n">
+        <v>1044.47</v>
+      </c>
+      <c r="AYX3" t="inlineStr">
         <is>
           <t>SZSEB</t>
         </is>
       </c>
-      <c r="AYW3" t="inlineStr">
+      <c r="AYY3" t="inlineStr">
         <is>
           <t>Shenzhen Stock Exchange Main Board, B Share Index, Close Price</t>
         </is>
       </c>
-      <c r="AYX3" t="inlineStr">
+      <c r="AYZ3" t="inlineStr">
         <is>
           <t>Index: 1992.02.28=100</t>
         </is>

--- a/INTLINE/data/924/SZSE/SZSE Main Board - Weekly.xlsx
+++ b/INTLINE/data/924/SZSE/SZSE Main Board - Weekly.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZG3"/>
+  <dimension ref="A1:AZH3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7149,15 +7149,20 @@
       </c>
       <c r="AZE1" s="1" t="inlineStr">
         <is>
+          <t>2022-06-25</t>
+        </is>
+      </c>
+      <c r="AZF1" s="1" t="inlineStr">
+        <is>
           <t>Index</t>
         </is>
       </c>
-      <c r="AZF1" s="1" t="inlineStr">
+      <c r="AZG1" s="1" t="inlineStr">
         <is>
           <t>Label</t>
         </is>
       </c>
-      <c r="AZG1" s="1" t="inlineStr">
+      <c r="AZH1" s="1" t="inlineStr">
         <is>
           <t>unit</t>
         </is>
@@ -11164,19 +11169,22 @@
         <v>2229.74</v>
       </c>
       <c r="AZD2" t="n">
-        <v>2239.6</v>
-      </c>
-      <c r="AZE2" t="inlineStr">
+        <v>2294.02</v>
+      </c>
+      <c r="AZE2" t="n">
+        <v>2319.67</v>
+      </c>
+      <c r="AZF2" t="inlineStr">
         <is>
           <t>SZSEA</t>
         </is>
       </c>
-      <c r="AZF2" t="inlineStr">
+      <c r="AZG2" t="inlineStr">
         <is>
           <t>Shenzhen Stock Exchange Main Board, A Share Index, Close Price</t>
         </is>
       </c>
-      <c r="AZG2" t="inlineStr">
+      <c r="AZH2" t="inlineStr">
         <is>
           <t>Index: 1994.10.04=100</t>
         </is>
@@ -15181,19 +15189,22 @@
         <v>1151.66</v>
       </c>
       <c r="AZD3" t="n">
-        <v>1171.49</v>
-      </c>
-      <c r="AZE3" t="inlineStr">
+        <v>1188.16</v>
+      </c>
+      <c r="AZE3" t="n">
+        <v>1200.12</v>
+      </c>
+      <c r="AZF3" t="inlineStr">
         <is>
           <t>SZSEB</t>
         </is>
       </c>
-      <c r="AZF3" t="inlineStr">
+      <c r="AZG3" t="inlineStr">
         <is>
           <t>Shenzhen Stock Exchange Main Board, B Share Index, Close Price</t>
         </is>
       </c>
-      <c r="AZG3" t="inlineStr">
+      <c r="AZH3" t="inlineStr">
         <is>
           <t>Index: 1992.02.28=100</t>
         </is>
